--- a/biology/Zoologie/Anguille/Anguille.xlsx
+++ b/biology/Zoologie/Anguille/Anguille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En français, le terme anguille est un nom vernaculaire ambigu désignant plusieurs espèces de poissons serpentiformes appartenant à des ordres différents. L'anguille d'Europe est l'anguille la plus connue.
 </t>
@@ -511,23 +523,25 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anguille d'Europe — Anguilla anguilla ; les expressions « anguille argentée » (ou « blanche ») et « anguille jaune » désignent des étapes de la vie de cette espèce
 Anguille abyssale — Saccopharyngiformes
 Anguille d'Amérique — Anguilla rostrata
 Anguille d'Australie — Anguilla australis
-Anguille à bec de canard — Nettastomatidae sp[1].
+Anguille à bec de canard — Nettastomatidae sp.
 Anguilles d'eau douce — Anguillidae
 Anguille électrique — Electrophorus electricus
 Anguille épineuse — Synbranchiformes
-Anguille égorgée — Synaphobranchidae [2]
+Anguille égorgée — Synaphobranchidae 
 Anguille japonaise — Anguilla japonica
-Anguille du Mozambique ou anguille à longue nageoire — Anguilla mossambica[3]
-Anguille à longue nageoire — Anguilla mossambica [3]
-Anguille bicolore ou anguille à nageoire courte — Anguilla bicolor est présente en Inde et en Indonésie[3]
+Anguille du Mozambique ou anguille à longue nageoire — Anguilla mossambica
+Anguille à longue nageoire — Anguilla mossambica 
+Anguille bicolore ou anguille à nageoire courte — Anguilla bicolor est présente en Inde et en Indonésie
 Anguille sombre ou anguille de vase — Anguilla obscura, présente dans le Pacifique
-Grande anguille marbrée — Anguilla marmorata s’étend sur toute la région indo-pacifique [3]
+Grande anguille marbrée — Anguilla marmorata s’étend sur toute la région indo-pacifique 
 Anguille marbrée africaine — Anguilla bengalensis labiata
 Anguille marbrée indienne — Anguilla bengalensis bengalensis
 Anguille à nez court — Simenchelys parasitica
